--- a/Data/commodities.xlsx
+++ b/Data/commodities.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7333E172-BDA1-49A2-A7AC-14EE7F6768F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{7333E172-BDA1-49A2-A7AC-14EE7F6768F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{540DDE37-F6A9-42DE-96BE-C98854B94F18}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodities" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -880,20 +880,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H40" totalsRowShown="0">
-  <autoFilter ref="A1:H40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H40" totalsRowShown="0">
+  <autoFilter ref="A1:H40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
     <sortCondition ref="E1:E40"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Comm_nr"/>
-    <tableColumn id="2" name="Comm_name"/>
-    <tableColumn id="3" name="Comm_name_norsk"/>
-    <tableColumn id="4" name="Comm_aggr_nr"/>
-    <tableColumn id="5" name="Comm_aggr_name"/>
-    <tableColumn id="6" name="Comm_aggr_name_norsk"/>
-    <tableColumn id="7" name="product_group_stram"/>
-    <tableColumn id="8" name="product_class_stram"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Comm_nr"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Comm_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Comm_name_norsk"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comm_aggr_nr"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Comm_aggr_name"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comm_aggr_name_norsk"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="product_group_stram"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="product_class_stram"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1195,11 +1195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/commodities.xlsx
+++ b/Data/commodities.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonamar\Documents\04_Papers\Paper IV\Time value\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{7333E172-BDA1-49A2-A7AC-14EE7F6768F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{540DDE37-F6A9-42DE-96BE-C98854B94F18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8001BAC-24AC-4C3C-AD47-E1F5DB76EE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="22170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodities" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
   <si>
     <t>Comm_nr</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Comm_aggr_name_norsk</t>
   </si>
   <si>
-    <t>Agricultural products</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jordbruksvarer </t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t xml:space="preserve">Tørrbulk </t>
   </si>
   <si>
-    <t>Fruit, vegetables and flowers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Frukt, grønt, blomster og planter </t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t xml:space="preserve">Termovarer </t>
   </si>
   <si>
-    <t>Gen cargo, living animals</t>
-  </si>
-  <si>
     <t xml:space="preserve">Levende dyr </t>
   </si>
   <si>
@@ -76,15 +67,9 @@
     <t xml:space="preserve">Stykkgods </t>
   </si>
   <si>
-    <t>Thermo input</t>
-  </si>
-  <si>
     <t xml:space="preserve">Innsatsvarer termo </t>
   </si>
   <si>
-    <t>Fresh fish</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fersk fisk og sjømat </t>
   </si>
   <si>
@@ -94,21 +79,12 @@
     <t xml:space="preserve">Fisk </t>
   </si>
   <si>
-    <t>Frozen fish</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fryst fisk og sjømat </t>
   </si>
   <si>
-    <t>Thermo consumption</t>
-  </si>
-  <si>
     <t xml:space="preserve">Termovarer, konsum </t>
   </si>
   <si>
-    <t>Consumption food</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matvarer konsum </t>
   </si>
   <si>
@@ -118,15 +94,9 @@
     <t xml:space="preserve">Drikkevarer </t>
   </si>
   <si>
-    <t>Animal foodstuff</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dyrefôr </t>
   </si>
   <si>
-    <t>Organic inputs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Organiske råvarer </t>
   </si>
   <si>
@@ -136,27 +106,15 @@
     <t xml:space="preserve">Industrivarer </t>
   </si>
   <si>
-    <t>Other inputs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Andre råvarer </t>
   </si>
   <si>
-    <t xml:space="preserve"> Jern og stål</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jern og stål </t>
   </si>
   <si>
-    <t xml:space="preserve"> Andre metaller</t>
-  </si>
-  <si>
     <t xml:space="preserve">Andre metaller </t>
   </si>
   <si>
-    <t xml:space="preserve"> Metallvarer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Metallvarer </t>
   </si>
   <si>
@@ -178,9 +136,6 @@
     <t xml:space="preserve">Plast og gummi </t>
   </si>
   <si>
-    <t>Timber and products from forestry industry</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tømmer og produkter fra skogbruk </t>
   </si>
   <si>
@@ -190,21 +145,12 @@
     <t xml:space="preserve">Tømmer </t>
   </si>
   <si>
-    <t>Wood products</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trelast og trevarer </t>
   </si>
   <si>
-    <t>Pulp and chips</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flis og tremasse </t>
   </si>
   <si>
-    <t>Paper intermediates</t>
-  </si>
-  <si>
     <t xml:space="preserve">Papir </t>
   </si>
   <si>
@@ -214,15 +160,9 @@
     <t xml:space="preserve">Trykksaker, programvarer og filmproduksjoner </t>
   </si>
   <si>
-    <t>Coal, ore and scrap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kull, torv og malm </t>
   </si>
   <si>
-    <t>Stone, sand, gravel and earth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stein, sand, grus, pukk, leire </t>
   </si>
   <si>
@@ -238,39 +178,21 @@
     <t xml:space="preserve">Maskiner og verktøy </t>
   </si>
   <si>
-    <t>Electronic equipments</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elektrisk utstyr </t>
   </si>
   <si>
-    <t>Gen cargo, building materials</t>
-  </si>
-  <si>
     <t xml:space="preserve">Byggevarer </t>
   </si>
   <si>
-    <t>Cement, plaster and cretaceous</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sement og betong </t>
   </si>
   <si>
-    <t>Gen cargo, consumption</t>
-  </si>
-  <si>
     <t xml:space="preserve">Forbruksvarer </t>
   </si>
   <si>
-    <t>Gen cargo, high value</t>
-  </si>
-  <si>
     <t xml:space="preserve">Høyverdivarer </t>
   </si>
   <si>
-    <t xml:space="preserve"> Transportmidler</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transportmidler </t>
   </si>
   <si>
@@ -280,39 +202,21 @@
     <t xml:space="preserve">Petroleum uraffinert </t>
   </si>
   <si>
-    <t>Petroleum gas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Naturgass </t>
   </si>
   <si>
-    <t>Refined products</t>
-  </si>
-  <si>
     <t xml:space="preserve">Raffinerte petroleumsprodukter </t>
   </si>
   <si>
-    <t xml:space="preserve"> Bitumen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bitumen </t>
   </si>
   <si>
-    <t>Non-traded goods</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avfall og gjenvinning </t>
   </si>
   <si>
-    <t>Other fish (conserved)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bearbeidet fisk </t>
   </si>
   <si>
-    <t>Fertilizers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gjødsel </t>
   </si>
   <si>
@@ -335,6 +239,117 @@
   </si>
   <si>
     <t>Break bulk</t>
+  </si>
+  <si>
+    <t>Other metals</t>
+  </si>
+  <si>
+    <t>Other raw materials</t>
+  </si>
+  <si>
+    <t>Waste and recycling</t>
+  </si>
+  <si>
+    <t>Processed fish</t>
+  </si>
+  <si>
+    <t>Bitumen</t>
+  </si>
+  <si>
+    <t>Building materials</t>
+  </si>
+  <si>
+    <t>Animal feed</t>
+  </si>
+  <si>
+    <t>Electrical equipment</t>
+  </si>
+  <si>
+    <t>Fresh fish and seafood</t>
+  </si>
+  <si>
+    <t>Wood chips and pulp</t>
+  </si>
+  <si>
+    <t>Consumer goods</t>
+  </si>
+  <si>
+    <t>Fruits vegetables, flowers, and plants</t>
+  </si>
+  <si>
+    <t>Frozen fish and seafood</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>High-value goods</t>
+  </si>
+  <si>
+    <t>Thermos input materials (heated goods)</t>
+  </si>
+  <si>
+    <t>Iron and steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural products </t>
+  </si>
+  <si>
+    <t>Coal, peat, and ore</t>
+  </si>
+  <si>
+    <t>Living animals</t>
+  </si>
+  <si>
+    <t>Consumer food products</t>
+  </si>
+  <si>
+    <t>Metal products</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Organic raw materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper </t>
+  </si>
+  <si>
+    <t>Refined petroleum products</t>
+  </si>
+  <si>
+    <t>Cement and concrete</t>
+  </si>
+  <si>
+    <t>Stone, sand, gravel, crushed stone, clay</t>
+  </si>
+  <si>
+    <t>Consumer thermoware</t>
+  </si>
+  <si>
+    <t>Timber and forestry products</t>
+  </si>
+  <si>
+    <t>Vehicle transport</t>
+  </si>
+  <si>
+    <t>Lumber and wood products</t>
+  </si>
+  <si>
+    <t>Neo bulk</t>
+  </si>
+  <si>
+    <t>Break bulk (slow)</t>
+  </si>
+  <si>
+    <t>Breakbulk (fast)</t>
+  </si>
+  <si>
+    <t>Break bulk (fast)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry bulk </t>
   </si>
 </sst>
 </file>
@@ -882,8 +897,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H40" totalsRowShown="0">
   <autoFilter ref="A1:H40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
-    <sortCondition ref="E1:E40"/>
+  <sortState ref="A2:H40">
+    <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Comm_nr"/>
@@ -1199,22 +1214,22 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1234,1024 +1249,1024 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="F14" t="s">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>31</v>
-      </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>51</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="F28" t="s">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/commodities.xlsx
+++ b/Data/commodities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonamar\Documents\04_Papers\Paper IV\Time value\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/STraM_ntnu_development/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8001BAC-24AC-4C3C-AD47-E1F5DB76EE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D8001BAC-24AC-4C3C-AD47-E1F5DB76EE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC0FDA9-3AEE-4643-8AC5-461C5F786A9C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commodities" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="108">
   <si>
     <t>Comm_nr</t>
   </si>
@@ -343,13 +343,7 @@
     <t>Break bulk (slow)</t>
   </si>
   <si>
-    <t>Breakbulk (fast)</t>
-  </si>
-  <si>
     <t>Break bulk (fast)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry bulk </t>
   </si>
 </sst>
 </file>
@@ -897,7 +891,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H40" totalsRowShown="0">
   <autoFilter ref="A1:H40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:H40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
     <sortCondition ref="A1:A40"/>
   </sortState>
   <tableColumns count="8">
@@ -1214,22 +1208,22 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1275,13 +1269,13 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1307,7 +1301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1333,7 +1327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1359,7 +1353,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1385,7 +1379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1411,7 +1405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1431,13 +1425,13 @@
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1457,13 +1451,13 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1483,13 +1477,13 @@
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1515,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1541,7 +1535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1567,7 +1561,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1593,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1619,7 +1613,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1645,7 +1639,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1671,7 +1665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1697,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1749,7 +1743,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1775,7 +1769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1801,7 +1795,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1827,7 +1821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1879,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1905,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1931,7 +1925,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1951,13 +1945,13 @@
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1983,7 +1977,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2009,7 +2003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2035,7 +2029,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2055,13 +2049,13 @@
         <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2087,7 +2081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2139,7 +2133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2165,7 +2159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2191,7 +2185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2217,7 +2211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2243,7 +2237,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>

--- a/Data/commodities.xlsx
+++ b/Data/commodities.xlsx
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
